--- a/Iran-Mazandaran-Polour.xlsx
+++ b/Iran-Mazandaran-Polour.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TRU\Iran_data\CSV\Iran_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42237A5-1A33-4B8C-8771-165EBDEA35A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967A375C-FD6A-43D2-B1D1-F025281BA330}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Grazing area 1" sheetId="3" r:id="rId1"/>
@@ -6350,6 +6350,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="15" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6365,19 +6380,28 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="15" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="15" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="15" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6409,30 +6433,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="15" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="15" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6825,253 +6825,253 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="117"/>
-      <c r="O1" s="117"/>
-      <c r="P1" s="117"/>
-      <c r="Q1" s="117"/>
-      <c r="R1" s="117"/>
-      <c r="S1" s="117"/>
-      <c r="T1" s="117"/>
-      <c r="U1" s="117"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="109"/>
+      <c r="T1" s="109"/>
+      <c r="U1" s="109"/>
     </row>
     <row r="2" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="115" t="s">
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="110" t="s">
         <v>132</v>
       </c>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="115"/>
-      <c r="P2" s="115"/>
-      <c r="Q2" s="115"/>
-      <c r="R2" s="115"/>
-      <c r="S2" s="115"/>
-      <c r="T2" s="115"/>
-      <c r="U2" s="115"/>
-      <c r="V2" s="115"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="110"/>
       <c r="W2" s="38"/>
     </row>
     <row r="3" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="118">
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="111">
         <v>41122</v>
       </c>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
-      <c r="M3" s="115"/>
-      <c r="N3" s="115"/>
-      <c r="O3" s="115"/>
-      <c r="P3" s="115"/>
-      <c r="Q3" s="115"/>
-      <c r="R3" s="115"/>
-      <c r="S3" s="115"/>
-      <c r="T3" s="115"/>
-      <c r="U3" s="115"/>
-      <c r="V3" s="115"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
+      <c r="N3" s="110"/>
+      <c r="O3" s="110"/>
+      <c r="P3" s="110"/>
+      <c r="Q3" s="110"/>
+      <c r="R3" s="110"/>
+      <c r="S3" s="110"/>
+      <c r="T3" s="110"/>
+      <c r="U3" s="110"/>
+      <c r="V3" s="110"/>
       <c r="W3" s="38"/>
     </row>
     <row r="4" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="115" t="s">
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="110" t="s">
         <v>403</v>
       </c>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="115"/>
-      <c r="L4" s="115"/>
-      <c r="M4" s="115"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="115"/>
-      <c r="S4" s="115"/>
-      <c r="T4" s="115"/>
-      <c r="U4" s="115"/>
-      <c r="V4" s="115"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="110"/>
+      <c r="M4" s="110"/>
+      <c r="N4" s="110"/>
+      <c r="O4" s="110"/>
+      <c r="P4" s="110"/>
+      <c r="Q4" s="110"/>
+      <c r="R4" s="110"/>
+      <c r="S4" s="110"/>
+      <c r="T4" s="110"/>
+      <c r="U4" s="110"/>
+      <c r="V4" s="110"/>
       <c r="W4" s="38"/>
     </row>
     <row r="5" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="115" t="s">
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="110" t="s">
         <v>406</v>
       </c>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="115"/>
-      <c r="L5" s="115"/>
-      <c r="M5" s="115"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
-      <c r="U5" s="115"/>
-      <c r="V5" s="115"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="110"/>
+      <c r="K5" s="110"/>
+      <c r="L5" s="110"/>
+      <c r="M5" s="110"/>
+      <c r="N5" s="110"/>
+      <c r="O5" s="110"/>
+      <c r="P5" s="110"/>
+      <c r="Q5" s="110"/>
+      <c r="R5" s="110"/>
+      <c r="S5" s="110"/>
+      <c r="T5" s="110"/>
+      <c r="U5" s="110"/>
+      <c r="V5" s="110"/>
       <c r="W5" s="38"/>
     </row>
     <row r="6" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="111" t="s">
+      <c r="A6" s="116" t="s">
         <v>400</v>
       </c>
-      <c r="B6" s="111"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="111"/>
-      <c r="L6" s="111"/>
-      <c r="M6" s="111"/>
-      <c r="N6" s="111"/>
-      <c r="O6" s="111"/>
-      <c r="P6" s="111"/>
-      <c r="Q6" s="111"/>
-      <c r="R6" s="111"/>
-      <c r="S6" s="111"/>
-      <c r="T6" s="111"/>
-      <c r="U6" s="111"/>
-      <c r="V6" s="111"/>
-      <c r="W6" s="111"/>
-      <c r="X6" s="111"/>
-      <c r="Y6" s="111"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="116"/>
+      <c r="L6" s="116"/>
+      <c r="M6" s="116"/>
+      <c r="N6" s="116"/>
+      <c r="O6" s="116"/>
+      <c r="P6" s="116"/>
+      <c r="Q6" s="116"/>
+      <c r="R6" s="116"/>
+      <c r="S6" s="116"/>
+      <c r="T6" s="116"/>
+      <c r="U6" s="116"/>
+      <c r="V6" s="116"/>
+      <c r="W6" s="116"/>
+      <c r="X6" s="116"/>
+      <c r="Y6" s="116"/>
     </row>
     <row r="7" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="111" t="s">
+      <c r="A7" s="116" t="s">
         <v>408</v>
       </c>
-      <c r="B7" s="112"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
-      <c r="H7" s="112"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="112"/>
-      <c r="K7" s="112"/>
-      <c r="L7" s="112"/>
-      <c r="M7" s="112"/>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="112"/>
-      <c r="R7" s="112"/>
-      <c r="S7" s="112"/>
-      <c r="T7" s="112"/>
-      <c r="U7" s="112"/>
-      <c r="V7" s="112"/>
-      <c r="W7" s="112"/>
-      <c r="X7" s="112"/>
-      <c r="Y7" s="112"/>
+      <c r="B7" s="117"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
+      <c r="L7" s="117"/>
+      <c r="M7" s="117"/>
+      <c r="N7" s="117"/>
+      <c r="O7" s="117"/>
+      <c r="P7" s="117"/>
+      <c r="Q7" s="117"/>
+      <c r="R7" s="117"/>
+      <c r="S7" s="117"/>
+      <c r="T7" s="117"/>
+      <c r="U7" s="117"/>
+      <c r="V7" s="117"/>
+      <c r="W7" s="117"/>
+      <c r="X7" s="117"/>
+      <c r="Y7" s="117"/>
     </row>
     <row r="8" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="116" t="s">
+      <c r="A8" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="116"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="116"/>
-      <c r="K8" s="116"/>
-      <c r="L8" s="116"/>
-      <c r="M8" s="116"/>
-      <c r="N8" s="116"/>
-      <c r="O8" s="116"/>
-      <c r="P8" s="116"/>
-      <c r="Q8" s="116"/>
-      <c r="R8" s="116"/>
-      <c r="S8" s="116"/>
-      <c r="T8" s="116"/>
-      <c r="U8" s="116"/>
+      <c r="B8" s="113"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="113"/>
+      <c r="H8" s="113"/>
+      <c r="I8" s="113"/>
+      <c r="J8" s="113"/>
+      <c r="K8" s="113"/>
+      <c r="L8" s="113"/>
+      <c r="M8" s="113"/>
+      <c r="N8" s="113"/>
+      <c r="O8" s="113"/>
+      <c r="P8" s="113"/>
+      <c r="Q8" s="113"/>
+      <c r="R8" s="113"/>
+      <c r="S8" s="113"/>
+      <c r="T8" s="113"/>
+      <c r="U8" s="113"/>
     </row>
     <row r="9" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="113" t="s">
+      <c r="A9" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="113"/>
-      <c r="C9" s="113"/>
-      <c r="D9" s="113"/>
-      <c r="E9" s="113"/>
-      <c r="F9" s="113"/>
-      <c r="G9" s="113"/>
-      <c r="H9" s="113"/>
-      <c r="I9" s="113"/>
-      <c r="J9" s="113"/>
-      <c r="K9" s="113"/>
-      <c r="L9" s="113"/>
-      <c r="M9" s="113"/>
-      <c r="N9" s="113"/>
-      <c r="O9" s="113"/>
-      <c r="P9" s="113"/>
-      <c r="Q9" s="113"/>
-      <c r="R9" s="113"/>
-      <c r="S9" s="113"/>
-      <c r="T9" s="113"/>
-      <c r="U9" s="113"/>
+      <c r="B9" s="118"/>
+      <c r="C9" s="118"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="118"/>
+      <c r="M9" s="118"/>
+      <c r="N9" s="118"/>
+      <c r="O9" s="118"/>
+      <c r="P9" s="118"/>
+      <c r="Q9" s="118"/>
+      <c r="R9" s="118"/>
+      <c r="S9" s="118"/>
+      <c r="T9" s="118"/>
+      <c r="U9" s="118"/>
     </row>
     <row r="10" spans="1:32" s="66" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="64" t="s">
@@ -13320,42 +13320,42 @@
       <c r="B75" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="C75" s="110" t="s">
+      <c r="C75" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="D75" s="110"/>
-      <c r="E75" s="110"/>
-      <c r="F75" s="110"/>
-      <c r="G75" s="110"/>
-      <c r="H75" s="110"/>
-      <c r="I75" s="110"/>
-      <c r="J75" s="110"/>
-      <c r="K75" s="110" t="s">
+      <c r="D75" s="115"/>
+      <c r="E75" s="115"/>
+      <c r="F75" s="115"/>
+      <c r="G75" s="115"/>
+      <c r="H75" s="115"/>
+      <c r="I75" s="115"/>
+      <c r="J75" s="115"/>
+      <c r="K75" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="L75" s="110"/>
-      <c r="M75" s="110"/>
-      <c r="N75" s="110" t="s">
+      <c r="L75" s="115"/>
+      <c r="M75" s="115"/>
+      <c r="N75" s="115" t="s">
         <v>26</v>
       </c>
-      <c r="O75" s="110"/>
-      <c r="P75" s="110"/>
-      <c r="Q75" s="110"/>
-      <c r="R75" s="110"/>
-      <c r="S75" s="110"/>
-      <c r="T75" s="110"/>
-      <c r="U75" s="110"/>
-      <c r="V75" s="110"/>
-      <c r="W75" s="110"/>
-      <c r="X75" s="110"/>
-      <c r="Y75" s="110"/>
-      <c r="Z75" s="110" t="s">
+      <c r="O75" s="115"/>
+      <c r="P75" s="115"/>
+      <c r="Q75" s="115"/>
+      <c r="R75" s="115"/>
+      <c r="S75" s="115"/>
+      <c r="T75" s="115"/>
+      <c r="U75" s="115"/>
+      <c r="V75" s="115"/>
+      <c r="W75" s="115"/>
+      <c r="X75" s="115"/>
+      <c r="Y75" s="115"/>
+      <c r="Z75" s="115" t="s">
         <v>131</v>
       </c>
-      <c r="AA75" s="110"/>
-      <c r="AB75" s="110"/>
-      <c r="AC75" s="110"/>
-      <c r="AD75" s="110"/>
+      <c r="AA75" s="115"/>
+      <c r="AB75" s="115"/>
+      <c r="AC75" s="115"/>
+      <c r="AD75" s="115"/>
       <c r="AF75" s="75"/>
     </row>
     <row r="76" spans="1:33" s="78" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
@@ -13551,37 +13551,37 @@
       </c>
     </row>
     <row r="78" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="109" t="s">
+      <c r="B78" s="114" t="s">
         <v>28</v>
       </c>
-      <c r="C78" s="109"/>
-      <c r="D78" s="109"/>
-      <c r="E78" s="109"/>
-      <c r="F78" s="109"/>
-      <c r="G78" s="109"/>
-      <c r="H78" s="109"/>
-      <c r="I78" s="109"/>
-      <c r="J78" s="109"/>
-      <c r="K78" s="109"/>
-      <c r="L78" s="109"/>
-      <c r="M78" s="109"/>
-      <c r="N78" s="109"/>
-      <c r="O78" s="109"/>
-      <c r="P78" s="109"/>
-      <c r="Q78" s="109"/>
-      <c r="R78" s="109"/>
-      <c r="S78" s="109"/>
-      <c r="T78" s="109"/>
-      <c r="U78" s="109"/>
-      <c r="V78" s="109"/>
-      <c r="W78" s="109"/>
-      <c r="X78" s="109"/>
-      <c r="Y78" s="109"/>
-      <c r="Z78" s="109"/>
-      <c r="AA78" s="109"/>
-      <c r="AB78" s="109"/>
-      <c r="AC78" s="109"/>
-      <c r="AD78" s="109"/>
+      <c r="C78" s="114"/>
+      <c r="D78" s="114"/>
+      <c r="E78" s="114"/>
+      <c r="F78" s="114"/>
+      <c r="G78" s="114"/>
+      <c r="H78" s="114"/>
+      <c r="I78" s="114"/>
+      <c r="J78" s="114"/>
+      <c r="K78" s="114"/>
+      <c r="L78" s="114"/>
+      <c r="M78" s="114"/>
+      <c r="N78" s="114"/>
+      <c r="O78" s="114"/>
+      <c r="P78" s="114"/>
+      <c r="Q78" s="114"/>
+      <c r="R78" s="114"/>
+      <c r="S78" s="114"/>
+      <c r="T78" s="114"/>
+      <c r="U78" s="114"/>
+      <c r="V78" s="114"/>
+      <c r="W78" s="114"/>
+      <c r="X78" s="114"/>
+      <c r="Y78" s="114"/>
+      <c r="Z78" s="114"/>
+      <c r="AA78" s="114"/>
+      <c r="AB78" s="114"/>
+      <c r="AC78" s="114"/>
+      <c r="AD78" s="114"/>
       <c r="AE78" s="74" t="s">
         <v>29</v>
       </c>
@@ -19824,16 +19824,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="G2:V2"/>
-    <mergeCell ref="G3:V3"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:V5"/>
-    <mergeCell ref="A8:U8"/>
-    <mergeCell ref="G4:V4"/>
     <mergeCell ref="B78:AD78"/>
     <mergeCell ref="Z75:AD75"/>
     <mergeCell ref="A6:Y6"/>
@@ -19842,6 +19832,16 @@
     <mergeCell ref="K75:M75"/>
     <mergeCell ref="N75:Y75"/>
     <mergeCell ref="A9:U9"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:V5"/>
+    <mergeCell ref="A8:U8"/>
+    <mergeCell ref="G4:V4"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="G2:V2"/>
+    <mergeCell ref="G3:V3"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -19875,56 +19875,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="132"/>
-      <c r="R1" s="132"/>
-      <c r="S1" s="132"/>
-      <c r="T1" s="132"/>
-      <c r="U1" s="132"/>
-      <c r="V1" s="132"/>
-      <c r="W1" s="132"/>
-      <c r="X1" s="132"/>
-      <c r="Y1" s="132"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="119"/>
+      <c r="O1" s="119"/>
+      <c r="P1" s="119"/>
+      <c r="Q1" s="119"/>
+      <c r="R1" s="119"/>
+      <c r="S1" s="119"/>
+      <c r="T1" s="119"/>
+      <c r="U1" s="119"/>
+      <c r="V1" s="119"/>
+      <c r="W1" s="119"/>
+      <c r="X1" s="119"/>
+      <c r="Y1" s="119"/>
     </row>
     <row r="2" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="129" t="s">
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="121" t="s">
         <v>132</v>
       </c>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="131"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="123"/>
       <c r="R2" s="84"/>
       <c r="S2" s="84"/>
       <c r="T2" s="84"/>
@@ -19937,27 +19937,27 @@
       <c r="AB2" s="84"/>
     </row>
     <row r="3" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="133" t="s">
+      <c r="A3" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="133"/>
-      <c r="C3" s="133"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="134">
+      <c r="B3" s="120"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="124">
         <v>41124</v>
       </c>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="135"/>
-      <c r="L3" s="135"/>
-      <c r="M3" s="135"/>
-      <c r="N3" s="135"/>
-      <c r="O3" s="135"/>
-      <c r="P3" s="135"/>
-      <c r="Q3" s="136"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="125"/>
+      <c r="N3" s="125"/>
+      <c r="O3" s="125"/>
+      <c r="P3" s="125"/>
+      <c r="Q3" s="126"/>
       <c r="R3" s="84"/>
       <c r="S3" s="84"/>
       <c r="T3" s="84"/>
@@ -19970,27 +19970,27 @@
       <c r="AB3" s="84"/>
     </row>
     <row r="4" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="133" t="s">
+      <c r="A4" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="133"/>
-      <c r="C4" s="133"/>
-      <c r="D4" s="133"/>
-      <c r="E4" s="133"/>
-      <c r="F4" s="133"/>
-      <c r="G4" s="129" t="s">
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="121" t="s">
         <v>403</v>
       </c>
-      <c r="H4" s="130"/>
-      <c r="I4" s="130"/>
-      <c r="J4" s="130"/>
-      <c r="K4" s="130"/>
-      <c r="L4" s="130"/>
-      <c r="M4" s="130"/>
-      <c r="N4" s="130"/>
-      <c r="O4" s="130"/>
-      <c r="P4" s="130"/>
-      <c r="Q4" s="131"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="122"/>
+      <c r="J4" s="122"/>
+      <c r="K4" s="122"/>
+      <c r="L4" s="122"/>
+      <c r="M4" s="122"/>
+      <c r="N4" s="122"/>
+      <c r="O4" s="122"/>
+      <c r="P4" s="122"/>
+      <c r="Q4" s="123"/>
       <c r="R4" s="84"/>
       <c r="S4" s="84"/>
       <c r="T4" s="84"/>
@@ -20003,27 +20003,27 @@
       <c r="AB4" s="84"/>
     </row>
     <row r="5" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="125" t="s">
+      <c r="A5" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="126"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="127"/>
-      <c r="G5" s="129" t="s">
+      <c r="B5" s="134"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="121" t="s">
         <v>405</v>
       </c>
-      <c r="H5" s="130"/>
-      <c r="I5" s="130"/>
-      <c r="J5" s="130"/>
-      <c r="K5" s="130"/>
-      <c r="L5" s="130"/>
-      <c r="M5" s="130"/>
-      <c r="N5" s="130"/>
-      <c r="O5" s="130"/>
-      <c r="P5" s="130"/>
-      <c r="Q5" s="131"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="122"/>
+      <c r="K5" s="122"/>
+      <c r="L5" s="122"/>
+      <c r="M5" s="122"/>
+      <c r="N5" s="122"/>
+      <c r="O5" s="122"/>
+      <c r="P5" s="122"/>
+      <c r="Q5" s="123"/>
       <c r="R5" s="84"/>
       <c r="S5" s="84"/>
       <c r="T5" s="84"/>
@@ -20036,120 +20036,120 @@
       <c r="AB5" s="84"/>
     </row>
     <row r="6" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="111" t="s">
+      <c r="A6" s="116" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="111"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="111"/>
-      <c r="L6" s="111"/>
-      <c r="M6" s="111"/>
-      <c r="N6" s="111"/>
-      <c r="O6" s="111"/>
-      <c r="P6" s="111"/>
-      <c r="Q6" s="111"/>
-      <c r="R6" s="111"/>
-      <c r="S6" s="111"/>
-      <c r="T6" s="111"/>
-      <c r="U6" s="111"/>
-      <c r="V6" s="111"/>
-      <c r="W6" s="111"/>
-      <c r="X6" s="111"/>
-      <c r="Y6" s="111"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="116"/>
+      <c r="L6" s="116"/>
+      <c r="M6" s="116"/>
+      <c r="N6" s="116"/>
+      <c r="O6" s="116"/>
+      <c r="P6" s="116"/>
+      <c r="Q6" s="116"/>
+      <c r="R6" s="116"/>
+      <c r="S6" s="116"/>
+      <c r="T6" s="116"/>
+      <c r="U6" s="116"/>
+      <c r="V6" s="116"/>
+      <c r="W6" s="116"/>
+      <c r="X6" s="116"/>
+      <c r="Y6" s="116"/>
     </row>
     <row r="7" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="111" t="s">
+      <c r="A7" s="116" t="s">
         <v>409</v>
       </c>
-      <c r="B7" s="112"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
-      <c r="H7" s="112"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="112"/>
-      <c r="K7" s="112"/>
-      <c r="L7" s="112"/>
-      <c r="M7" s="112"/>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="112"/>
-      <c r="R7" s="112"/>
-      <c r="S7" s="112"/>
-      <c r="T7" s="112"/>
-      <c r="U7" s="112"/>
-      <c r="V7" s="112"/>
-      <c r="W7" s="112"/>
-      <c r="X7" s="112"/>
-      <c r="Y7" s="112"/>
+      <c r="B7" s="117"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
+      <c r="L7" s="117"/>
+      <c r="M7" s="117"/>
+      <c r="N7" s="117"/>
+      <c r="O7" s="117"/>
+      <c r="P7" s="117"/>
+      <c r="Q7" s="117"/>
+      <c r="R7" s="117"/>
+      <c r="S7" s="117"/>
+      <c r="T7" s="117"/>
+      <c r="U7" s="117"/>
+      <c r="V7" s="117"/>
+      <c r="W7" s="117"/>
+      <c r="X7" s="117"/>
+      <c r="Y7" s="117"/>
     </row>
     <row r="8" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="111" t="s">
+      <c r="A8" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="111"/>
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="111"/>
-      <c r="G8" s="111"/>
-      <c r="H8" s="111"/>
-      <c r="I8" s="111"/>
-      <c r="J8" s="111"/>
-      <c r="K8" s="111"/>
-      <c r="L8" s="111"/>
-      <c r="M8" s="111"/>
-      <c r="N8" s="111"/>
-      <c r="O8" s="111"/>
-      <c r="P8" s="111"/>
-      <c r="Q8" s="111"/>
-      <c r="R8" s="111"/>
-      <c r="S8" s="111"/>
-      <c r="T8" s="111"/>
-      <c r="U8" s="111"/>
-      <c r="V8" s="111"/>
-      <c r="W8" s="111"/>
-      <c r="X8" s="111"/>
-      <c r="Y8" s="111"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="116"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="116"/>
+      <c r="N8" s="116"/>
+      <c r="O8" s="116"/>
+      <c r="P8" s="116"/>
+      <c r="Q8" s="116"/>
+      <c r="R8" s="116"/>
+      <c r="S8" s="116"/>
+      <c r="T8" s="116"/>
+      <c r="U8" s="116"/>
+      <c r="V8" s="116"/>
+      <c r="W8" s="116"/>
+      <c r="X8" s="116"/>
+      <c r="Y8" s="116"/>
     </row>
     <row r="9" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="128" t="s">
+      <c r="A9" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="128"/>
-      <c r="C9" s="128"/>
-      <c r="D9" s="128"/>
-      <c r="E9" s="128"/>
-      <c r="F9" s="128"/>
-      <c r="G9" s="128"/>
-      <c r="H9" s="128"/>
-      <c r="I9" s="128"/>
-      <c r="J9" s="128"/>
-      <c r="K9" s="128"/>
-      <c r="L9" s="128"/>
-      <c r="M9" s="128"/>
-      <c r="N9" s="128"/>
-      <c r="O9" s="128"/>
-      <c r="P9" s="128"/>
-      <c r="Q9" s="128"/>
-      <c r="R9" s="128"/>
-      <c r="S9" s="128"/>
-      <c r="T9" s="128"/>
-      <c r="U9" s="128"/>
-      <c r="V9" s="128"/>
-      <c r="W9" s="128"/>
-      <c r="X9" s="128"/>
-      <c r="Y9" s="128"/>
+      <c r="B9" s="136"/>
+      <c r="C9" s="136"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="136"/>
+      <c r="G9" s="136"/>
+      <c r="H9" s="136"/>
+      <c r="I9" s="136"/>
+      <c r="J9" s="136"/>
+      <c r="K9" s="136"/>
+      <c r="L9" s="136"/>
+      <c r="M9" s="136"/>
+      <c r="N9" s="136"/>
+      <c r="O9" s="136"/>
+      <c r="P9" s="136"/>
+      <c r="Q9" s="136"/>
+      <c r="R9" s="136"/>
+      <c r="S9" s="136"/>
+      <c r="T9" s="136"/>
+      <c r="U9" s="136"/>
+      <c r="V9" s="136"/>
+      <c r="W9" s="136"/>
+      <c r="X9" s="136"/>
+      <c r="Y9" s="136"/>
     </row>
     <row r="10" spans="1:39" s="64" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="64" t="s">
@@ -27696,52 +27696,52 @@
     </row>
     <row r="75" spans="1:40" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="90"/>
-      <c r="B75" s="122" t="s">
+      <c r="B75" s="130" t="s">
         <v>23</v>
       </c>
-      <c r="C75" s="124"/>
-      <c r="D75" s="122" t="s">
+      <c r="C75" s="132"/>
+      <c r="D75" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="123"/>
-      <c r="F75" s="123"/>
-      <c r="G75" s="123"/>
-      <c r="H75" s="123"/>
-      <c r="I75" s="123"/>
-      <c r="J75" s="123"/>
-      <c r="K75" s="124"/>
-      <c r="L75" s="122" t="s">
+      <c r="E75" s="131"/>
+      <c r="F75" s="131"/>
+      <c r="G75" s="131"/>
+      <c r="H75" s="131"/>
+      <c r="I75" s="131"/>
+      <c r="J75" s="131"/>
+      <c r="K75" s="132"/>
+      <c r="L75" s="130" t="s">
         <v>25</v>
       </c>
-      <c r="M75" s="123"/>
-      <c r="N75" s="123"/>
-      <c r="O75" s="123"/>
-      <c r="P75" s="124"/>
-      <c r="Q75" s="122" t="s">
+      <c r="M75" s="131"/>
+      <c r="N75" s="131"/>
+      <c r="O75" s="131"/>
+      <c r="P75" s="132"/>
+      <c r="Q75" s="130" t="s">
         <v>26</v>
       </c>
-      <c r="R75" s="123"/>
-      <c r="S75" s="123"/>
-      <c r="T75" s="123"/>
-      <c r="U75" s="123"/>
-      <c r="V75" s="123"/>
-      <c r="W75" s="123"/>
-      <c r="X75" s="123"/>
-      <c r="Y75" s="123"/>
-      <c r="Z75" s="123"/>
-      <c r="AA75" s="123"/>
-      <c r="AB75" s="123"/>
-      <c r="AC75" s="123"/>
-      <c r="AD75" s="123"/>
-      <c r="AE75" s="123"/>
-      <c r="AF75" s="124"/>
-      <c r="AG75" s="122" t="s">
+      <c r="R75" s="131"/>
+      <c r="S75" s="131"/>
+      <c r="T75" s="131"/>
+      <c r="U75" s="131"/>
+      <c r="V75" s="131"/>
+      <c r="W75" s="131"/>
+      <c r="X75" s="131"/>
+      <c r="Y75" s="131"/>
+      <c r="Z75" s="131"/>
+      <c r="AA75" s="131"/>
+      <c r="AB75" s="131"/>
+      <c r="AC75" s="131"/>
+      <c r="AD75" s="131"/>
+      <c r="AE75" s="131"/>
+      <c r="AF75" s="132"/>
+      <c r="AG75" s="130" t="s">
         <v>131</v>
       </c>
-      <c r="AH75" s="123"/>
-      <c r="AI75" s="123"/>
-      <c r="AJ75" s="123"/>
-      <c r="AK75" s="124"/>
+      <c r="AH75" s="131"/>
+      <c r="AI75" s="131"/>
+      <c r="AJ75" s="131"/>
+      <c r="AK75" s="132"/>
       <c r="AL75" s="50"/>
     </row>
     <row r="76" spans="1:40" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -27980,44 +27980,44 @@
     </row>
     <row r="78" spans="1:40" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="90"/>
-      <c r="B78" s="119" t="s">
+      <c r="B78" s="127" t="s">
         <v>28</v>
       </c>
-      <c r="C78" s="120"/>
-      <c r="D78" s="120"/>
-      <c r="E78" s="120"/>
-      <c r="F78" s="120"/>
-      <c r="G78" s="120"/>
-      <c r="H78" s="120"/>
-      <c r="I78" s="120"/>
-      <c r="J78" s="120"/>
-      <c r="K78" s="120"/>
-      <c r="L78" s="120"/>
-      <c r="M78" s="120"/>
-      <c r="N78" s="120"/>
-      <c r="O78" s="120"/>
-      <c r="P78" s="120"/>
-      <c r="Q78" s="120"/>
-      <c r="R78" s="120"/>
-      <c r="S78" s="120"/>
-      <c r="T78" s="120"/>
-      <c r="U78" s="120"/>
-      <c r="V78" s="120"/>
-      <c r="W78" s="120"/>
-      <c r="X78" s="120"/>
-      <c r="Y78" s="120"/>
-      <c r="Z78" s="120"/>
-      <c r="AA78" s="120"/>
-      <c r="AB78" s="120"/>
-      <c r="AC78" s="120"/>
-      <c r="AD78" s="120"/>
-      <c r="AE78" s="120"/>
-      <c r="AF78" s="120"/>
-      <c r="AG78" s="120"/>
-      <c r="AH78" s="120"/>
-      <c r="AI78" s="120"/>
-      <c r="AJ78" s="120"/>
-      <c r="AK78" s="121"/>
+      <c r="C78" s="128"/>
+      <c r="D78" s="128"/>
+      <c r="E78" s="128"/>
+      <c r="F78" s="128"/>
+      <c r="G78" s="128"/>
+      <c r="H78" s="128"/>
+      <c r="I78" s="128"/>
+      <c r="J78" s="128"/>
+      <c r="K78" s="128"/>
+      <c r="L78" s="128"/>
+      <c r="M78" s="128"/>
+      <c r="N78" s="128"/>
+      <c r="O78" s="128"/>
+      <c r="P78" s="128"/>
+      <c r="Q78" s="128"/>
+      <c r="R78" s="128"/>
+      <c r="S78" s="128"/>
+      <c r="T78" s="128"/>
+      <c r="U78" s="128"/>
+      <c r="V78" s="128"/>
+      <c r="W78" s="128"/>
+      <c r="X78" s="128"/>
+      <c r="Y78" s="128"/>
+      <c r="Z78" s="128"/>
+      <c r="AA78" s="128"/>
+      <c r="AB78" s="128"/>
+      <c r="AC78" s="128"/>
+      <c r="AD78" s="128"/>
+      <c r="AE78" s="128"/>
+      <c r="AF78" s="128"/>
+      <c r="AG78" s="128"/>
+      <c r="AH78" s="128"/>
+      <c r="AI78" s="128"/>
+      <c r="AJ78" s="128"/>
+      <c r="AK78" s="129"/>
       <c r="AL78" s="97" t="s">
         <v>29</v>
       </c>
@@ -35664,13 +35664,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:Y1"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:Q2"/>
-    <mergeCell ref="G3:Q3"/>
-    <mergeCell ref="G4:Q4"/>
     <mergeCell ref="B78:AK78"/>
     <mergeCell ref="AG75:AK75"/>
     <mergeCell ref="A5:F5"/>
@@ -35683,6 +35676,13 @@
     <mergeCell ref="L75:P75"/>
     <mergeCell ref="G5:Q5"/>
     <mergeCell ref="Q75:AF75"/>
+    <mergeCell ref="A1:Y1"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:Q2"/>
+    <mergeCell ref="G3:Q3"/>
+    <mergeCell ref="G4:Q4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -35713,260 +35713,260 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="117"/>
-      <c r="O1" s="117"/>
-      <c r="P1" s="117"/>
-      <c r="Q1" s="117"/>
-      <c r="R1" s="117"/>
-      <c r="S1" s="117"/>
-      <c r="T1" s="117"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="109"/>
+      <c r="T1" s="109"/>
       <c r="U1" s="36"/>
       <c r="V1" s="36"/>
       <c r="W1" s="37"/>
       <c r="X1" s="37"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="115" t="s">
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="110" t="s">
         <v>132</v>
       </c>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="115"/>
-      <c r="P2" s="115"/>
-      <c r="Q2" s="115"/>
-      <c r="R2" s="115"/>
-      <c r="S2" s="115"/>
-      <c r="T2" s="115"/>
-      <c r="U2" s="115"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
       <c r="V2" s="38"/>
       <c r="W2" s="37"/>
       <c r="X2" s="37"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="118">
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="111">
         <v>41122</v>
       </c>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
-      <c r="M3" s="115"/>
-      <c r="N3" s="115"/>
-      <c r="O3" s="115"/>
-      <c r="P3" s="115"/>
-      <c r="Q3" s="115"/>
-      <c r="R3" s="115"/>
-      <c r="S3" s="115"/>
-      <c r="T3" s="115"/>
-      <c r="U3" s="115"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
+      <c r="N3" s="110"/>
+      <c r="O3" s="110"/>
+      <c r="P3" s="110"/>
+      <c r="Q3" s="110"/>
+      <c r="R3" s="110"/>
+      <c r="S3" s="110"/>
+      <c r="T3" s="110"/>
+      <c r="U3" s="110"/>
       <c r="V3" s="38"/>
       <c r="W3" s="37"/>
       <c r="X3" s="37"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="115" t="s">
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="110" t="s">
         <v>403</v>
       </c>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="115"/>
-      <c r="L4" s="115"/>
-      <c r="M4" s="115"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="115"/>
-      <c r="S4" s="115"/>
-      <c r="T4" s="115"/>
-      <c r="U4" s="115"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="110"/>
+      <c r="M4" s="110"/>
+      <c r="N4" s="110"/>
+      <c r="O4" s="110"/>
+      <c r="P4" s="110"/>
+      <c r="Q4" s="110"/>
+      <c r="R4" s="110"/>
+      <c r="S4" s="110"/>
+      <c r="T4" s="110"/>
+      <c r="U4" s="110"/>
       <c r="V4" s="38"/>
       <c r="W4" s="37"/>
       <c r="X4" s="37"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="115" t="s">
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="110" t="s">
         <v>404</v>
       </c>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="115"/>
-      <c r="L5" s="115"/>
-      <c r="M5" s="115"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
-      <c r="U5" s="115"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="110"/>
+      <c r="K5" s="110"/>
+      <c r="L5" s="110"/>
+      <c r="M5" s="110"/>
+      <c r="N5" s="110"/>
+      <c r="O5" s="110"/>
+      <c r="P5" s="110"/>
+      <c r="Q5" s="110"/>
+      <c r="R5" s="110"/>
+      <c r="S5" s="110"/>
+      <c r="T5" s="110"/>
+      <c r="U5" s="110"/>
       <c r="V5" s="38"/>
       <c r="W5" s="37"/>
       <c r="X5" s="37"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="111" t="s">
+      <c r="A6" s="116" t="s">
         <v>407</v>
       </c>
-      <c r="B6" s="111"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="111"/>
-      <c r="L6" s="111"/>
-      <c r="M6" s="111"/>
-      <c r="N6" s="111"/>
-      <c r="O6" s="111"/>
-      <c r="P6" s="111"/>
-      <c r="Q6" s="111"/>
-      <c r="R6" s="111"/>
-      <c r="S6" s="111"/>
-      <c r="T6" s="111"/>
-      <c r="U6" s="111"/>
-      <c r="V6" s="111"/>
-      <c r="W6" s="111"/>
-      <c r="X6" s="111"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="116"/>
+      <c r="L6" s="116"/>
+      <c r="M6" s="116"/>
+      <c r="N6" s="116"/>
+      <c r="O6" s="116"/>
+      <c r="P6" s="116"/>
+      <c r="Q6" s="116"/>
+      <c r="R6" s="116"/>
+      <c r="S6" s="116"/>
+      <c r="T6" s="116"/>
+      <c r="U6" s="116"/>
+      <c r="V6" s="116"/>
+      <c r="W6" s="116"/>
+      <c r="X6" s="116"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="111" t="s">
+      <c r="A7" s="116" t="s">
         <v>410</v>
       </c>
-      <c r="B7" s="112"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
-      <c r="H7" s="112"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="112"/>
-      <c r="K7" s="112"/>
-      <c r="L7" s="112"/>
-      <c r="M7" s="112"/>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="112"/>
-      <c r="R7" s="112"/>
-      <c r="S7" s="112"/>
-      <c r="T7" s="112"/>
-      <c r="U7" s="112"/>
-      <c r="V7" s="112"/>
-      <c r="W7" s="112"/>
-      <c r="X7" s="112"/>
+      <c r="B7" s="117"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
+      <c r="L7" s="117"/>
+      <c r="M7" s="117"/>
+      <c r="N7" s="117"/>
+      <c r="O7" s="117"/>
+      <c r="P7" s="117"/>
+      <c r="Q7" s="117"/>
+      <c r="R7" s="117"/>
+      <c r="S7" s="117"/>
+      <c r="T7" s="117"/>
+      <c r="U7" s="117"/>
+      <c r="V7" s="117"/>
+      <c r="W7" s="117"/>
+      <c r="X7" s="117"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="116" t="s">
+      <c r="A8" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="116"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="116"/>
-      <c r="K8" s="116"/>
-      <c r="L8" s="116"/>
-      <c r="M8" s="116"/>
-      <c r="N8" s="116"/>
-      <c r="O8" s="116"/>
-      <c r="P8" s="116"/>
-      <c r="Q8" s="116"/>
-      <c r="R8" s="116"/>
-      <c r="S8" s="116"/>
-      <c r="T8" s="116"/>
+      <c r="B8" s="113"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="113"/>
+      <c r="H8" s="113"/>
+      <c r="I8" s="113"/>
+      <c r="J8" s="113"/>
+      <c r="K8" s="113"/>
+      <c r="L8" s="113"/>
+      <c r="M8" s="113"/>
+      <c r="N8" s="113"/>
+      <c r="O8" s="113"/>
+      <c r="P8" s="113"/>
+      <c r="Q8" s="113"/>
+      <c r="R8" s="113"/>
+      <c r="S8" s="113"/>
+      <c r="T8" s="113"/>
       <c r="U8" s="36"/>
       <c r="V8" s="36"/>
       <c r="W8" s="37"/>
       <c r="X8" s="37"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="113" t="s">
+      <c r="A9" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="113"/>
-      <c r="C9" s="113"/>
-      <c r="D9" s="113"/>
-      <c r="E9" s="113"/>
-      <c r="F9" s="113"/>
-      <c r="G9" s="113"/>
-      <c r="H9" s="113"/>
-      <c r="I9" s="113"/>
-      <c r="J9" s="113"/>
-      <c r="K9" s="113"/>
-      <c r="L9" s="113"/>
-      <c r="M9" s="113"/>
-      <c r="N9" s="113"/>
-      <c r="O9" s="113"/>
-      <c r="P9" s="113"/>
-      <c r="Q9" s="113"/>
-      <c r="R9" s="113"/>
-      <c r="S9" s="113"/>
-      <c r="T9" s="113"/>
+      <c r="B9" s="118"/>
+      <c r="C9" s="118"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="118"/>
+      <c r="M9" s="118"/>
+      <c r="N9" s="118"/>
+      <c r="O9" s="118"/>
+      <c r="P9" s="118"/>
+      <c r="Q9" s="118"/>
+      <c r="R9" s="118"/>
+      <c r="S9" s="118"/>
+      <c r="T9" s="118"/>
       <c r="U9" s="36"/>
       <c r="V9" s="36"/>
       <c r="W9" s="37"/>
@@ -43615,13 +43615,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:U4"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:U2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:U3"/>
     <mergeCell ref="C75:D75"/>
     <mergeCell ref="F75:N75"/>
     <mergeCell ref="O75:Q75"/>
@@ -43632,6 +43625,13 @@
     <mergeCell ref="A7:X7"/>
     <mergeCell ref="A8:T8"/>
     <mergeCell ref="A9:T9"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:U4"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:U2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:U3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -46846,21 +46846,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E0C724CCBB7FB24794473D558C897B81" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="86d9b256e064198c05d6efa412f72bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="14f82cd5-dea2-47e7-b602-401f39b9480a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9d018442e514e3a48a93ea56c159054e" ns2:_="">
     <xsd:import namespace="14f82cd5-dea2-47e7-b602-401f39b9480a"/>
@@ -47006,24 +46991,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D38BF366-BF97-48F4-94A1-B927A936A776}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7F19FF7-5851-4320-B8FA-2109DC2BF297}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F0F3324-A273-4EF1-8055-F401DF92FDEA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -47039,4 +47022,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7F19FF7-5851-4320-B8FA-2109DC2BF297}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D38BF366-BF97-48F4-94A1-B927A936A776}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>